--- a/target/classes/com/brainware/qa/testdata/BFI_Config.xlsx
+++ b/target/classes/com/brainware/qa/testdata/BFI_Config.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <oleSize ref="A1:O10"/>
 </workbook>
 </file>
 
